--- a/Logs/7 Portfolio I Development/Week 1/UmholtzTomas_TimeEstimation1.xlsx
+++ b/Logs/7 Portfolio I Development/Week 1/UmholtzTomas_TimeEstimation1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulholtz/UmholtzTommy/Logs/7 Portfolio I Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulholtz/UmholtzTommy/Logs/7 Portfolio I Development/Week 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="D18" s="4">
         <f>SUM(D19:D31)</f>
-        <v>0.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E18" s="4">
         <f>C18-D19</f>
@@ -741,9 +741,12 @@
       <c r="C22">
         <v>2</v>
       </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -753,9 +756,12 @@
       <c r="C23">
         <v>2</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -765,9 +771,12 @@
       <c r="C24">
         <v>2</v>
       </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -777,9 +786,12 @@
       <c r="C25">
         <v>2</v>
       </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">

--- a/Logs/7 Portfolio I Development/Week 1/UmholtzTomas_TimeEstimation1.xlsx
+++ b/Logs/7 Portfolio I Development/Week 1/UmholtzTomas_TimeEstimation1.xlsx
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="D18" s="4">
         <f>SUM(D19:D31)</f>
-        <v>8.8000000000000007</v>
+        <v>26.8</v>
       </c>
       <c r="E18" s="4">
         <f>C18-D19</f>
@@ -729,9 +729,12 @@
       <c r="C21">
         <v>2</v>
       </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -801,9 +804,12 @@
       <c r="C26">
         <v>2</v>
       </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -813,9 +819,12 @@
       <c r="C27">
         <v>3</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -825,9 +834,12 @@
       <c r="C28">
         <v>5</v>
       </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -837,9 +849,12 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -849,9 +864,12 @@
       <c r="C30">
         <v>3</v>
       </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
